--- a/AAII_Financials/Yearly/TSU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TSU_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>TSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3965500</v>
+        <v>3215300</v>
       </c>
       <c r="E8" s="3">
-        <v>3791000</v>
+        <v>3142100</v>
       </c>
       <c r="F8" s="3">
-        <v>3647000</v>
+        <v>3003800</v>
       </c>
       <c r="G8" s="3">
-        <v>4003100</v>
+        <v>2889700</v>
       </c>
       <c r="H8" s="3">
-        <v>4553200</v>
+        <v>3171800</v>
       </c>
       <c r="I8" s="3">
-        <v>4652000</v>
+        <v>3607700</v>
       </c>
       <c r="J8" s="3">
+        <v>3686000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4381800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4238700</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1798400</v>
+        <v>1375500</v>
       </c>
       <c r="E9" s="3">
-        <v>1868600</v>
+        <v>1425000</v>
       </c>
       <c r="F9" s="3">
-        <v>1796600</v>
+        <v>1480600</v>
       </c>
       <c r="G9" s="3">
-        <v>1939800</v>
+        <v>1423500</v>
       </c>
       <c r="H9" s="3">
-        <v>2354800</v>
+        <v>1537000</v>
       </c>
       <c r="I9" s="3">
-        <v>2527200</v>
+        <v>1865800</v>
       </c>
       <c r="J9" s="3">
+        <v>2002400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3571700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3300800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2167000</v>
+        <v>1839800</v>
       </c>
       <c r="E10" s="3">
-        <v>1922300</v>
+        <v>1717100</v>
       </c>
       <c r="F10" s="3">
-        <v>1850400</v>
+        <v>1523100</v>
       </c>
       <c r="G10" s="3">
-        <v>2063200</v>
+        <v>1466200</v>
       </c>
       <c r="H10" s="3">
-        <v>2198400</v>
+        <v>1634800</v>
       </c>
       <c r="I10" s="3">
-        <v>2124800</v>
+        <v>1741900</v>
       </c>
       <c r="J10" s="3">
+        <v>1683600</v>
+      </c>
+      <c r="K10" s="3">
         <v>810100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>937900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>105700</v>
+        <v>86300</v>
       </c>
       <c r="E14" s="3">
-        <v>85600</v>
+        <v>83700</v>
       </c>
       <c r="F14" s="3">
-        <v>82200</v>
+        <v>67800</v>
       </c>
       <c r="G14" s="3">
-        <v>81300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>65200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>64500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>55600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>38600</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>194800</v>
+        <v>184400</v>
       </c>
       <c r="E15" s="3">
-        <v>232400</v>
+        <v>154400</v>
       </c>
       <c r="F15" s="3">
-        <v>210300</v>
+        <v>184100</v>
       </c>
       <c r="G15" s="3">
+        <v>166600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>152900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>130800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K15" s="3">
         <v>193000</v>
       </c>
-      <c r="H15" s="3">
-        <v>165100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>156400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>193000</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>217900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3400900</v>
+        <v>2379900</v>
       </c>
       <c r="E17" s="3">
-        <v>3339500</v>
+        <v>2694700</v>
       </c>
       <c r="F17" s="3">
-        <v>3314400</v>
+        <v>2646000</v>
       </c>
       <c r="G17" s="3">
-        <v>3243800</v>
+        <v>2626200</v>
       </c>
       <c r="H17" s="3">
-        <v>3972800</v>
+        <v>2570200</v>
       </c>
       <c r="I17" s="3">
-        <v>4082500</v>
+        <v>3147800</v>
       </c>
       <c r="J17" s="3">
+        <v>3234800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3839200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3725700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>564500</v>
+        <v>835400</v>
       </c>
       <c r="E18" s="3">
-        <v>451500</v>
+        <v>447300</v>
       </c>
       <c r="F18" s="3">
-        <v>332600</v>
+        <v>357700</v>
       </c>
       <c r="G18" s="3">
-        <v>759300</v>
+        <v>263500</v>
       </c>
       <c r="H18" s="3">
-        <v>580500</v>
+        <v>601600</v>
       </c>
       <c r="I18" s="3">
-        <v>569500</v>
+        <v>459900</v>
       </c>
       <c r="J18" s="3">
+        <v>451300</v>
+      </c>
+      <c r="K18" s="3">
         <v>542600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>512900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-40700</v>
+        <v>177500</v>
       </c>
       <c r="E20" s="3">
-        <v>-6900</v>
+        <v>-32300</v>
       </c>
       <c r="F20" s="3">
-        <v>8100</v>
+        <v>-5400</v>
       </c>
       <c r="G20" s="3">
-        <v>59400</v>
+        <v>6400</v>
       </c>
       <c r="H20" s="3">
-        <v>53200</v>
+        <v>47100</v>
       </c>
       <c r="I20" s="3">
-        <v>-8100</v>
+        <v>42100</v>
       </c>
       <c r="J20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K20" s="3">
         <v>13500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1457500</v>
+        <v>1985500</v>
       </c>
       <c r="E21" s="3">
-        <v>1392300</v>
+        <v>1164900</v>
       </c>
       <c r="F21" s="3">
-        <v>1234300</v>
+        <v>1113400</v>
       </c>
       <c r="G21" s="3">
-        <v>1612500</v>
+        <v>987700</v>
       </c>
       <c r="H21" s="3">
-        <v>1354400</v>
+        <v>1286200</v>
       </c>
       <c r="I21" s="3">
-        <v>1215000</v>
+        <v>1080900</v>
       </c>
       <c r="J21" s="3">
+        <v>969700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1190900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1149200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>84800</v>
+        <v>173600</v>
       </c>
       <c r="E22" s="3">
-        <v>109400</v>
+        <v>67200</v>
       </c>
       <c r="F22" s="3">
-        <v>104000</v>
+        <v>86700</v>
       </c>
       <c r="G22" s="3">
-        <v>117900</v>
+        <v>82400</v>
       </c>
       <c r="H22" s="3">
-        <v>121600</v>
+        <v>93400</v>
       </c>
       <c r="I22" s="3">
-        <v>62600</v>
+        <v>96300</v>
       </c>
       <c r="J22" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K22" s="3">
         <v>53200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>62300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>439100</v>
+        <v>839300</v>
       </c>
       <c r="E23" s="3">
-        <v>335200</v>
+        <v>347900</v>
       </c>
       <c r="F23" s="3">
-        <v>236600</v>
+        <v>265600</v>
       </c>
       <c r="G23" s="3">
-        <v>700800</v>
+        <v>187500</v>
       </c>
       <c r="H23" s="3">
-        <v>512100</v>
+        <v>555300</v>
       </c>
       <c r="I23" s="3">
-        <v>498800</v>
+        <v>405800</v>
       </c>
       <c r="J23" s="3">
+        <v>395300</v>
+      </c>
+      <c r="K23" s="3">
         <v>502900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>452400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-155300</v>
+        <v>169100</v>
       </c>
       <c r="E24" s="3">
-        <v>46900</v>
+        <v>-123000</v>
       </c>
       <c r="F24" s="3">
-        <v>61400</v>
+        <v>37200</v>
       </c>
       <c r="G24" s="3">
-        <v>213800</v>
+        <v>48600</v>
       </c>
       <c r="H24" s="3">
-        <v>151000</v>
+        <v>169400</v>
       </c>
       <c r="I24" s="3">
-        <v>147200</v>
+        <v>119600</v>
       </c>
       <c r="J24" s="3">
+        <v>116700</v>
+      </c>
+      <c r="K24" s="3">
         <v>164500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>135400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>594300</v>
+        <v>670200</v>
       </c>
       <c r="E26" s="3">
-        <v>288300</v>
+        <v>470900</v>
       </c>
       <c r="F26" s="3">
-        <v>175200</v>
+        <v>228400</v>
       </c>
       <c r="G26" s="3">
-        <v>487000</v>
+        <v>138900</v>
       </c>
       <c r="H26" s="3">
-        <v>361100</v>
+        <v>385900</v>
       </c>
       <c r="I26" s="3">
-        <v>351600</v>
+        <v>286100</v>
       </c>
       <c r="J26" s="3">
+        <v>278600</v>
+      </c>
+      <c r="K26" s="3">
         <v>338300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>317000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>594300</v>
+        <v>670200</v>
       </c>
       <c r="E27" s="3">
-        <v>288300</v>
+        <v>470900</v>
       </c>
       <c r="F27" s="3">
-        <v>175200</v>
+        <v>228400</v>
       </c>
       <c r="G27" s="3">
-        <v>487000</v>
+        <v>138900</v>
       </c>
       <c r="H27" s="3">
-        <v>361100</v>
+        <v>385900</v>
       </c>
       <c r="I27" s="3">
-        <v>351600</v>
+        <v>286100</v>
       </c>
       <c r="J27" s="3">
+        <v>278600</v>
+      </c>
+      <c r="K27" s="3">
         <v>338300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>317000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>40700</v>
+        <v>-177500</v>
       </c>
       <c r="E32" s="3">
-        <v>6900</v>
+        <v>32300</v>
       </c>
       <c r="F32" s="3">
-        <v>-8100</v>
+        <v>5400</v>
       </c>
       <c r="G32" s="3">
-        <v>-59400</v>
+        <v>-6400</v>
       </c>
       <c r="H32" s="3">
-        <v>-53200</v>
+        <v>-47100</v>
       </c>
       <c r="I32" s="3">
-        <v>8100</v>
+        <v>-42100</v>
       </c>
       <c r="J32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>594300</v>
+        <v>670200</v>
       </c>
       <c r="E33" s="3">
-        <v>288300</v>
+        <v>470900</v>
       </c>
       <c r="F33" s="3">
-        <v>175200</v>
+        <v>228400</v>
       </c>
       <c r="G33" s="3">
-        <v>487000</v>
+        <v>138900</v>
       </c>
       <c r="H33" s="3">
-        <v>361100</v>
+        <v>385900</v>
       </c>
       <c r="I33" s="3">
-        <v>351600</v>
+        <v>286100</v>
       </c>
       <c r="J33" s="3">
+        <v>278600</v>
+      </c>
+      <c r="K33" s="3">
         <v>338300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>317000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>594300</v>
+        <v>670200</v>
       </c>
       <c r="E35" s="3">
-        <v>288300</v>
+        <v>470900</v>
       </c>
       <c r="F35" s="3">
-        <v>175200</v>
+        <v>228400</v>
       </c>
       <c r="G35" s="3">
-        <v>487000</v>
+        <v>138900</v>
       </c>
       <c r="H35" s="3">
-        <v>361100</v>
+        <v>385900</v>
       </c>
       <c r="I35" s="3">
-        <v>351600</v>
+        <v>286100</v>
       </c>
       <c r="J35" s="3">
+        <v>278600</v>
+      </c>
+      <c r="K35" s="3">
         <v>338300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>317000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>251200</v>
+        <v>428200</v>
       </c>
       <c r="E41" s="3">
-        <v>691400</v>
+        <v>201600</v>
       </c>
       <c r="F41" s="3">
-        <v>1197500</v>
+        <v>554800</v>
       </c>
       <c r="G41" s="3">
-        <v>1424600</v>
+        <v>961000</v>
       </c>
       <c r="H41" s="3">
-        <v>2444000</v>
+        <v>1143200</v>
       </c>
       <c r="I41" s="3">
-        <v>1234800</v>
+        <v>1961300</v>
       </c>
       <c r="J41" s="3">
+        <v>990900</v>
+      </c>
+      <c r="K41" s="3">
         <v>86500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>183300</v>
+        <v>122600</v>
       </c>
       <c r="E42" s="3">
-        <v>178800</v>
+        <v>147100</v>
       </c>
       <c r="F42" s="3">
-        <v>112100</v>
+        <v>143500</v>
       </c>
       <c r="G42" s="3">
-        <v>280000</v>
+        <v>89900</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>224700</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>948200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>782600</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>809500</v>
+        <v>937000</v>
       </c>
       <c r="E43" s="3">
-        <v>758900</v>
+        <v>649600</v>
       </c>
       <c r="F43" s="3">
-        <v>907900</v>
+        <v>609000</v>
       </c>
       <c r="G43" s="3">
-        <v>960300</v>
+        <v>728600</v>
       </c>
       <c r="H43" s="3">
-        <v>1211200</v>
+        <v>770700</v>
       </c>
       <c r="I43" s="3">
-        <v>1120200</v>
+        <v>972000</v>
       </c>
       <c r="J43" s="3">
+        <v>898900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1141500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1118900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>42700</v>
+        <v>38100</v>
       </c>
       <c r="E44" s="3">
-        <v>28900</v>
+        <v>34300</v>
       </c>
       <c r="F44" s="3">
-        <v>33600</v>
+        <v>23200</v>
       </c>
       <c r="G44" s="3">
-        <v>33100</v>
+        <v>27000</v>
       </c>
       <c r="H44" s="3">
-        <v>123300</v>
+        <v>26600</v>
       </c>
       <c r="I44" s="3">
-        <v>138600</v>
+        <v>99000</v>
       </c>
       <c r="J44" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K44" s="3">
         <v>62900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>114000</v>
+        <v>58300</v>
       </c>
       <c r="E45" s="3">
-        <v>118500</v>
+        <v>91500</v>
       </c>
       <c r="F45" s="3">
-        <v>109200</v>
+        <v>95100</v>
       </c>
       <c r="G45" s="3">
-        <v>253700</v>
+        <v>87600</v>
       </c>
       <c r="H45" s="3">
-        <v>116100</v>
+        <v>203600</v>
       </c>
       <c r="I45" s="3">
-        <v>83900</v>
+        <v>93200</v>
       </c>
       <c r="J45" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K45" s="3">
         <v>88700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1400700</v>
+        <v>1584300</v>
       </c>
       <c r="E46" s="3">
-        <v>1776500</v>
+        <v>1124000</v>
       </c>
       <c r="F46" s="3">
-        <v>2360300</v>
+        <v>1425600</v>
       </c>
       <c r="G46" s="3">
-        <v>2811600</v>
+        <v>1894100</v>
       </c>
       <c r="H46" s="3">
-        <v>2611000</v>
+        <v>2256300</v>
       </c>
       <c r="I46" s="3">
-        <v>2508200</v>
+        <v>2095300</v>
       </c>
       <c r="J46" s="3">
+        <v>2012800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2327700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2055500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>375000</v>
+        <v>618000</v>
       </c>
       <c r="E47" s="3">
-        <v>277500</v>
+        <v>301000</v>
       </c>
       <c r="F47" s="3">
-        <v>255000</v>
+        <v>222700</v>
       </c>
       <c r="G47" s="3">
-        <v>236600</v>
+        <v>204700</v>
       </c>
       <c r="H47" s="3">
-        <v>198400</v>
+        <v>189800</v>
       </c>
       <c r="I47" s="3">
-        <v>145700</v>
+        <v>159200</v>
       </c>
       <c r="J47" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K47" s="3">
         <v>19400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2616300</v>
+        <v>3300500</v>
       </c>
       <c r="E48" s="3">
-        <v>2531000</v>
+        <v>2099600</v>
       </c>
       <c r="F48" s="3">
-        <v>2588500</v>
+        <v>2031100</v>
       </c>
       <c r="G48" s="3">
-        <v>2491000</v>
+        <v>2077200</v>
       </c>
       <c r="H48" s="3">
-        <v>4163600</v>
+        <v>1999100</v>
       </c>
       <c r="I48" s="3">
-        <v>3833100</v>
+        <v>3341300</v>
       </c>
       <c r="J48" s="3">
+        <v>3076100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1766900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1670100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2494500</v>
+        <v>1811800</v>
       </c>
       <c r="E49" s="3">
-        <v>2641700</v>
+        <v>2001800</v>
       </c>
       <c r="F49" s="3">
-        <v>2482900</v>
+        <v>2120000</v>
       </c>
       <c r="G49" s="3">
-        <v>2325700</v>
+        <v>1992500</v>
       </c>
       <c r="H49" s="3">
-        <v>4354000</v>
+        <v>1866400</v>
       </c>
       <c r="I49" s="3">
-        <v>2885400</v>
+        <v>3494100</v>
       </c>
       <c r="J49" s="3">
+        <v>2315500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1398600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1429300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>576300</v>
+        <v>246700</v>
       </c>
       <c r="E52" s="3">
-        <v>386200</v>
+        <v>462500</v>
       </c>
       <c r="F52" s="3">
-        <v>406100</v>
+        <v>309900</v>
       </c>
       <c r="G52" s="3">
-        <v>438200</v>
+        <v>325900</v>
       </c>
       <c r="H52" s="3">
-        <v>528300</v>
+        <v>351700</v>
       </c>
       <c r="I52" s="3">
-        <v>569800</v>
+        <v>424000</v>
       </c>
       <c r="J52" s="3">
+        <v>457200</v>
+      </c>
+      <c r="K52" s="3">
         <v>584400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>662000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7462800</v>
+        <v>7561400</v>
       </c>
       <c r="E54" s="3">
-        <v>7612800</v>
+        <v>5988900</v>
       </c>
       <c r="F54" s="3">
-        <v>8092800</v>
+        <v>6109300</v>
       </c>
       <c r="G54" s="3">
-        <v>8303100</v>
+        <v>6494500</v>
       </c>
       <c r="H54" s="3">
-        <v>7586900</v>
+        <v>6663300</v>
       </c>
       <c r="I54" s="3">
-        <v>6522600</v>
+        <v>6088500</v>
       </c>
       <c r="J54" s="3">
+        <v>5234400</v>
+      </c>
+      <c r="K54" s="3">
         <v>6097000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5838200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1009600</v>
+        <v>735200</v>
       </c>
       <c r="E57" s="3">
-        <v>930900</v>
+        <v>810200</v>
       </c>
       <c r="F57" s="3">
-        <v>808200</v>
+        <v>747100</v>
       </c>
       <c r="G57" s="3">
-        <v>872100</v>
+        <v>648600</v>
       </c>
       <c r="H57" s="3">
-        <v>2512200</v>
+        <v>699900</v>
       </c>
       <c r="I57" s="3">
-        <v>2454500</v>
+        <v>2016000</v>
       </c>
       <c r="J57" s="3">
+        <v>1969700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1002500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>920200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>211000</v>
+        <v>423000</v>
       </c>
       <c r="E58" s="3">
-        <v>357000</v>
+        <v>169400</v>
       </c>
       <c r="F58" s="3">
-        <v>290000</v>
+        <v>286500</v>
       </c>
       <c r="G58" s="3">
-        <v>552200</v>
+        <v>232700</v>
       </c>
       <c r="H58" s="3">
-        <v>599400</v>
+        <v>443200</v>
       </c>
       <c r="I58" s="3">
-        <v>228000</v>
+        <v>481000</v>
       </c>
       <c r="J58" s="3">
+        <v>182900</v>
+      </c>
+      <c r="K58" s="3">
         <v>222100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>270500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>431600</v>
+        <v>363000</v>
       </c>
       <c r="E59" s="3">
-        <v>399100</v>
+        <v>346400</v>
       </c>
       <c r="F59" s="3">
-        <v>602200</v>
+        <v>320300</v>
       </c>
       <c r="G59" s="3">
-        <v>716300</v>
+        <v>483200</v>
       </c>
       <c r="H59" s="3">
-        <v>888900</v>
+        <v>574900</v>
       </c>
       <c r="I59" s="3">
-        <v>424200</v>
+        <v>713400</v>
       </c>
       <c r="J59" s="3">
+        <v>340400</v>
+      </c>
+      <c r="K59" s="3">
         <v>497700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>502700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1652200</v>
+        <v>1521200</v>
       </c>
       <c r="E60" s="3">
-        <v>1687100</v>
+        <v>1325900</v>
       </c>
       <c r="F60" s="3">
-        <v>1700400</v>
+        <v>1353900</v>
       </c>
       <c r="G60" s="3">
-        <v>2140600</v>
+        <v>1364600</v>
       </c>
       <c r="H60" s="3">
-        <v>2251000</v>
+        <v>1717900</v>
       </c>
       <c r="I60" s="3">
-        <v>1879400</v>
+        <v>1806400</v>
       </c>
       <c r="J60" s="3">
+        <v>1508200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1722300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1693400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>630300</v>
+        <v>1415400</v>
       </c>
       <c r="E61" s="3">
-        <v>1179100</v>
+        <v>505900</v>
       </c>
       <c r="F61" s="3">
-        <v>1700100</v>
+        <v>946200</v>
       </c>
       <c r="G61" s="3">
-        <v>1676700</v>
+        <v>1364300</v>
       </c>
       <c r="H61" s="3">
-        <v>1354200</v>
+        <v>1345600</v>
       </c>
       <c r="I61" s="3">
-        <v>955800</v>
+        <v>1086700</v>
       </c>
       <c r="J61" s="3">
+        <v>767000</v>
+      </c>
+      <c r="K61" s="3">
         <v>803100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>637700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>557700</v>
+        <v>421100</v>
       </c>
       <c r="E62" s="3">
-        <v>508000</v>
+        <v>447600</v>
       </c>
       <c r="F62" s="3">
-        <v>678700</v>
+        <v>407700</v>
       </c>
       <c r="G62" s="3">
-        <v>614600</v>
+        <v>544700</v>
       </c>
       <c r="H62" s="3">
-        <v>585100</v>
+        <v>493200</v>
       </c>
       <c r="I62" s="3">
-        <v>404600</v>
+        <v>469500</v>
       </c>
       <c r="J62" s="3">
+        <v>324700</v>
+      </c>
+      <c r="K62" s="3">
         <v>341400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>293700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2840300</v>
+        <v>3357700</v>
       </c>
       <c r="E66" s="3">
-        <v>3374200</v>
+        <v>2279400</v>
       </c>
       <c r="F66" s="3">
-        <v>4079200</v>
+        <v>2707800</v>
       </c>
       <c r="G66" s="3">
-        <v>4432000</v>
+        <v>3273500</v>
       </c>
       <c r="H66" s="3">
-        <v>4095300</v>
+        <v>3556700</v>
       </c>
       <c r="I66" s="3">
-        <v>3114500</v>
+        <v>3286500</v>
       </c>
       <c r="J66" s="3">
+        <v>2499400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2866700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2624700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2231400</v>
+        <v>2284300</v>
       </c>
       <c r="E72" s="3">
-        <v>1849400</v>
+        <v>1790700</v>
       </c>
       <c r="F72" s="3">
-        <v>1621700</v>
+        <v>1484200</v>
       </c>
       <c r="G72" s="3">
-        <v>1478600</v>
+        <v>1301400</v>
       </c>
       <c r="H72" s="3">
-        <v>2373300</v>
+        <v>1186600</v>
       </c>
       <c r="I72" s="3">
-        <v>1848100</v>
+        <v>1904600</v>
       </c>
       <c r="J72" s="3">
+        <v>1483100</v>
+      </c>
+      <c r="K72" s="3">
         <v>933300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>773300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4622500</v>
+        <v>4203700</v>
       </c>
       <c r="E76" s="3">
-        <v>4238700</v>
+        <v>3709600</v>
       </c>
       <c r="F76" s="3">
-        <v>4013600</v>
+        <v>3401500</v>
       </c>
       <c r="G76" s="3">
-        <v>3871100</v>
+        <v>3220900</v>
       </c>
       <c r="H76" s="3">
-        <v>3491600</v>
+        <v>3106600</v>
       </c>
       <c r="I76" s="3">
-        <v>3408100</v>
+        <v>2802000</v>
       </c>
       <c r="J76" s="3">
+        <v>2735000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3230300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3213500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>594300</v>
+        <v>670200</v>
       </c>
       <c r="E81" s="3">
-        <v>288300</v>
+        <v>470900</v>
       </c>
       <c r="F81" s="3">
-        <v>175200</v>
+        <v>228400</v>
       </c>
       <c r="G81" s="3">
-        <v>487000</v>
+        <v>138900</v>
       </c>
       <c r="H81" s="3">
-        <v>361100</v>
+        <v>385900</v>
       </c>
       <c r="I81" s="3">
-        <v>351600</v>
+        <v>286100</v>
       </c>
       <c r="J81" s="3">
+        <v>278600</v>
+      </c>
+      <c r="K81" s="3">
         <v>338300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>317000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>923400</v>
+        <v>949000</v>
       </c>
       <c r="E83" s="3">
-        <v>937300</v>
+        <v>731700</v>
       </c>
       <c r="F83" s="3">
-        <v>883900</v>
+        <v>742600</v>
       </c>
       <c r="G83" s="3">
-        <v>785100</v>
+        <v>700400</v>
       </c>
       <c r="H83" s="3">
-        <v>712800</v>
+        <v>622100</v>
       </c>
       <c r="I83" s="3">
-        <v>646400</v>
+        <v>564800</v>
       </c>
       <c r="J83" s="3">
+        <v>512100</v>
+      </c>
+      <c r="K83" s="3">
         <v>627800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>644000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1431300</v>
+        <v>1307200</v>
       </c>
       <c r="E89" s="3">
-        <v>1262000</v>
+        <v>1134100</v>
       </c>
       <c r="F89" s="3">
-        <v>1165800</v>
+        <v>999900</v>
       </c>
       <c r="G89" s="3">
-        <v>999000</v>
+        <v>923700</v>
       </c>
       <c r="H89" s="3">
-        <v>1504100</v>
+        <v>791600</v>
       </c>
       <c r="I89" s="3">
-        <v>1230500</v>
+        <v>1191800</v>
       </c>
       <c r="J89" s="3">
+        <v>975000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1159500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1081500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-894800</v>
+        <v>-713000</v>
       </c>
       <c r="E91" s="3">
-        <v>-968600</v>
+        <v>-709000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1051400</v>
+        <v>-767500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1112500</v>
+        <v>-833100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1594800</v>
+        <v>-881500</v>
       </c>
       <c r="I91" s="3">
-        <v>-830800</v>
+        <v>-1263700</v>
       </c>
       <c r="J91" s="3">
+        <v>-658300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-879100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-751000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-894500</v>
+        <v>-687000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1027600</v>
+        <v>-708700</v>
       </c>
       <c r="F94" s="3">
-        <v>-987400</v>
+        <v>-814200</v>
       </c>
       <c r="G94" s="3">
-        <v>-655000</v>
+        <v>-782400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1602700</v>
+        <v>-519000</v>
       </c>
       <c r="I94" s="3">
-        <v>-833000</v>
+        <v>-1269900</v>
       </c>
       <c r="J94" s="3">
+        <v>-660000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-834200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1122500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-137400</v>
+        <v>-142500</v>
       </c>
       <c r="E96" s="3">
-        <v>-77700</v>
+        <v>-108800</v>
       </c>
       <c r="F96" s="3">
-        <v>-107500</v>
+        <v>-61600</v>
       </c>
       <c r="G96" s="3">
-        <v>-84200</v>
+        <v>-85200</v>
       </c>
       <c r="H96" s="3">
-        <v>-195200</v>
+        <v>-66700</v>
       </c>
       <c r="I96" s="3">
-        <v>-171600</v>
+        <v>-154700</v>
       </c>
       <c r="J96" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-122200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-120700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-977100</v>
+        <v>-396500</v>
       </c>
       <c r="E100" s="3">
-        <v>-740500</v>
+        <v>-774200</v>
       </c>
       <c r="F100" s="3">
-        <v>-405400</v>
+        <v>-586700</v>
       </c>
       <c r="G100" s="3">
-        <v>-141500</v>
+        <v>-321200</v>
       </c>
       <c r="H100" s="3">
-        <v>85900</v>
+        <v>-112100</v>
       </c>
       <c r="I100" s="3">
-        <v>-197300</v>
+        <v>68000</v>
       </c>
       <c r="J100" s="3">
+        <v>-156300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-52800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>260900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-440200</v>
+        <v>223800</v>
       </c>
       <c r="E102" s="3">
-        <v>-506100</v>
+        <v>-348800</v>
       </c>
       <c r="F102" s="3">
-        <v>-227000</v>
+        <v>-401000</v>
       </c>
       <c r="G102" s="3">
-        <v>202600</v>
+        <v>-179900</v>
       </c>
       <c r="H102" s="3">
-        <v>-12800</v>
+        <v>160500</v>
       </c>
       <c r="I102" s="3">
-        <v>200300</v>
+        <v>-10100</v>
       </c>
       <c r="J102" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K102" s="3">
         <v>272500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>220000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TSU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TSU_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3215300</v>
+        <v>3100100</v>
       </c>
       <c r="E8" s="3">
-        <v>3142100</v>
+        <v>3029500</v>
       </c>
       <c r="F8" s="3">
-        <v>3003800</v>
+        <v>2896100</v>
       </c>
       <c r="G8" s="3">
-        <v>2889700</v>
+        <v>2786100</v>
       </c>
       <c r="H8" s="3">
-        <v>3171800</v>
+        <v>3058200</v>
       </c>
       <c r="I8" s="3">
-        <v>3607700</v>
+        <v>3478500</v>
       </c>
       <c r="J8" s="3">
-        <v>3686000</v>
+        <v>3554000</v>
       </c>
       <c r="K8" s="3">
         <v>4381800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1375500</v>
+        <v>1326200</v>
       </c>
       <c r="E9" s="3">
-        <v>1425000</v>
+        <v>1373900</v>
       </c>
       <c r="F9" s="3">
-        <v>1480600</v>
+        <v>1427600</v>
       </c>
       <c r="G9" s="3">
-        <v>1423500</v>
+        <v>1372500</v>
       </c>
       <c r="H9" s="3">
-        <v>1537000</v>
+        <v>1481900</v>
       </c>
       <c r="I9" s="3">
-        <v>1865800</v>
+        <v>1799000</v>
       </c>
       <c r="J9" s="3">
-        <v>2002400</v>
+        <v>1930700</v>
       </c>
       <c r="K9" s="3">
         <v>3571700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1839800</v>
+        <v>1773900</v>
       </c>
       <c r="E10" s="3">
-        <v>1717100</v>
+        <v>1655500</v>
       </c>
       <c r="F10" s="3">
-        <v>1523100</v>
+        <v>1468600</v>
       </c>
       <c r="G10" s="3">
-        <v>1466200</v>
+        <v>1413600</v>
       </c>
       <c r="H10" s="3">
-        <v>1634800</v>
+        <v>1576200</v>
       </c>
       <c r="I10" s="3">
-        <v>1741900</v>
+        <v>1679500</v>
       </c>
       <c r="J10" s="3">
-        <v>1683600</v>
+        <v>1623300</v>
       </c>
       <c r="K10" s="3">
         <v>810100</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86300</v>
+        <v>83200</v>
       </c>
       <c r="E14" s="3">
-        <v>83700</v>
+        <v>80700</v>
       </c>
       <c r="F14" s="3">
-        <v>67800</v>
+        <v>65400</v>
       </c>
       <c r="G14" s="3">
-        <v>65200</v>
+        <v>62800</v>
       </c>
       <c r="H14" s="3">
-        <v>64500</v>
+        <v>62100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>184400</v>
+        <v>177800</v>
       </c>
       <c r="E15" s="3">
-        <v>154400</v>
+        <v>148900</v>
       </c>
       <c r="F15" s="3">
-        <v>184100</v>
+        <v>177500</v>
       </c>
       <c r="G15" s="3">
-        <v>166600</v>
+        <v>160700</v>
       </c>
       <c r="H15" s="3">
-        <v>152900</v>
+        <v>147400</v>
       </c>
       <c r="I15" s="3">
-        <v>130800</v>
+        <v>126100</v>
       </c>
       <c r="J15" s="3">
-        <v>124000</v>
+        <v>119500</v>
       </c>
       <c r="K15" s="3">
         <v>193000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2379900</v>
+        <v>2294600</v>
       </c>
       <c r="E17" s="3">
-        <v>2694700</v>
+        <v>2598200</v>
       </c>
       <c r="F17" s="3">
-        <v>2646000</v>
+        <v>2551200</v>
       </c>
       <c r="G17" s="3">
-        <v>2626200</v>
+        <v>2532100</v>
       </c>
       <c r="H17" s="3">
-        <v>2570200</v>
+        <v>2478100</v>
       </c>
       <c r="I17" s="3">
-        <v>3147800</v>
+        <v>3035000</v>
       </c>
       <c r="J17" s="3">
-        <v>3234800</v>
+        <v>3118900</v>
       </c>
       <c r="K17" s="3">
         <v>3839200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>835400</v>
+        <v>805500</v>
       </c>
       <c r="E18" s="3">
-        <v>447300</v>
+        <v>431300</v>
       </c>
       <c r="F18" s="3">
-        <v>357700</v>
+        <v>344900</v>
       </c>
       <c r="G18" s="3">
-        <v>263500</v>
+        <v>254100</v>
       </c>
       <c r="H18" s="3">
-        <v>601600</v>
+        <v>580100</v>
       </c>
       <c r="I18" s="3">
-        <v>459900</v>
+        <v>443400</v>
       </c>
       <c r="J18" s="3">
-        <v>451300</v>
+        <v>435100</v>
       </c>
       <c r="K18" s="3">
         <v>542600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>177500</v>
+        <v>171200</v>
       </c>
       <c r="E20" s="3">
-        <v>-32300</v>
+        <v>-31100</v>
       </c>
       <c r="F20" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="G20" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H20" s="3">
-        <v>47100</v>
+        <v>45400</v>
       </c>
       <c r="I20" s="3">
-        <v>42100</v>
+        <v>40600</v>
       </c>
       <c r="J20" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="K20" s="3">
         <v>13500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1985500</v>
+        <v>1907900</v>
       </c>
       <c r="E21" s="3">
-        <v>1164900</v>
+        <v>1118200</v>
       </c>
       <c r="F21" s="3">
-        <v>1113400</v>
+        <v>1068400</v>
       </c>
       <c r="G21" s="3">
-        <v>987700</v>
+        <v>947500</v>
       </c>
       <c r="H21" s="3">
-        <v>1286200</v>
+        <v>1235900</v>
       </c>
       <c r="I21" s="3">
-        <v>1080900</v>
+        <v>1038300</v>
       </c>
       <c r="J21" s="3">
-        <v>969700</v>
+        <v>931500</v>
       </c>
       <c r="K21" s="3">
         <v>1190900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>173600</v>
+        <v>167400</v>
       </c>
       <c r="E22" s="3">
-        <v>67200</v>
+        <v>64800</v>
       </c>
       <c r="F22" s="3">
-        <v>86700</v>
+        <v>83600</v>
       </c>
       <c r="G22" s="3">
-        <v>82400</v>
+        <v>79500</v>
       </c>
       <c r="H22" s="3">
-        <v>93400</v>
+        <v>90000</v>
       </c>
       <c r="I22" s="3">
-        <v>96300</v>
+        <v>92900</v>
       </c>
       <c r="J22" s="3">
-        <v>49600</v>
+        <v>47800</v>
       </c>
       <c r="K22" s="3">
         <v>53200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>839300</v>
+        <v>809200</v>
       </c>
       <c r="E23" s="3">
-        <v>347900</v>
+        <v>335400</v>
       </c>
       <c r="F23" s="3">
-        <v>265600</v>
+        <v>256100</v>
       </c>
       <c r="G23" s="3">
-        <v>187500</v>
+        <v>180800</v>
       </c>
       <c r="H23" s="3">
-        <v>555300</v>
+        <v>535400</v>
       </c>
       <c r="I23" s="3">
-        <v>405800</v>
+        <v>391200</v>
       </c>
       <c r="J23" s="3">
-        <v>395300</v>
+        <v>381100</v>
       </c>
       <c r="K23" s="3">
         <v>502900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>169100</v>
+        <v>163000</v>
       </c>
       <c r="E24" s="3">
-        <v>-123000</v>
+        <v>-118600</v>
       </c>
       <c r="F24" s="3">
-        <v>37200</v>
+        <v>35900</v>
       </c>
       <c r="G24" s="3">
-        <v>48600</v>
+        <v>46900</v>
       </c>
       <c r="H24" s="3">
-        <v>169400</v>
+        <v>163300</v>
       </c>
       <c r="I24" s="3">
-        <v>119600</v>
+        <v>115300</v>
       </c>
       <c r="J24" s="3">
-        <v>116700</v>
+        <v>112500</v>
       </c>
       <c r="K24" s="3">
         <v>164500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>670200</v>
+        <v>646200</v>
       </c>
       <c r="E26" s="3">
-        <v>470900</v>
+        <v>454000</v>
       </c>
       <c r="F26" s="3">
-        <v>228400</v>
+        <v>220200</v>
       </c>
       <c r="G26" s="3">
-        <v>138900</v>
+        <v>133900</v>
       </c>
       <c r="H26" s="3">
-        <v>385900</v>
+        <v>372000</v>
       </c>
       <c r="I26" s="3">
-        <v>286100</v>
+        <v>275900</v>
       </c>
       <c r="J26" s="3">
-        <v>278600</v>
+        <v>268600</v>
       </c>
       <c r="K26" s="3">
         <v>338300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>670200</v>
+        <v>646200</v>
       </c>
       <c r="E27" s="3">
-        <v>470900</v>
+        <v>454000</v>
       </c>
       <c r="F27" s="3">
-        <v>228400</v>
+        <v>220200</v>
       </c>
       <c r="G27" s="3">
-        <v>138900</v>
+        <v>133900</v>
       </c>
       <c r="H27" s="3">
-        <v>385900</v>
+        <v>372000</v>
       </c>
       <c r="I27" s="3">
-        <v>286100</v>
+        <v>275900</v>
       </c>
       <c r="J27" s="3">
-        <v>278600</v>
+        <v>268600</v>
       </c>
       <c r="K27" s="3">
         <v>338300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-177500</v>
+        <v>-171200</v>
       </c>
       <c r="E32" s="3">
-        <v>32300</v>
+        <v>31100</v>
       </c>
       <c r="F32" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="G32" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H32" s="3">
-        <v>-47100</v>
+        <v>-45400</v>
       </c>
       <c r="I32" s="3">
-        <v>-42100</v>
+        <v>-40600</v>
       </c>
       <c r="J32" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="K32" s="3">
         <v>-13500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>670200</v>
+        <v>646200</v>
       </c>
       <c r="E33" s="3">
-        <v>470900</v>
+        <v>454000</v>
       </c>
       <c r="F33" s="3">
-        <v>228400</v>
+        <v>220200</v>
       </c>
       <c r="G33" s="3">
-        <v>138900</v>
+        <v>133900</v>
       </c>
       <c r="H33" s="3">
-        <v>385900</v>
+        <v>372000</v>
       </c>
       <c r="I33" s="3">
-        <v>286100</v>
+        <v>275900</v>
       </c>
       <c r="J33" s="3">
-        <v>278600</v>
+        <v>268600</v>
       </c>
       <c r="K33" s="3">
         <v>338300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>670200</v>
+        <v>646200</v>
       </c>
       <c r="E35" s="3">
-        <v>470900</v>
+        <v>454000</v>
       </c>
       <c r="F35" s="3">
-        <v>228400</v>
+        <v>220200</v>
       </c>
       <c r="G35" s="3">
-        <v>138900</v>
+        <v>133900</v>
       </c>
       <c r="H35" s="3">
-        <v>385900</v>
+        <v>372000</v>
       </c>
       <c r="I35" s="3">
-        <v>286100</v>
+        <v>275900</v>
       </c>
       <c r="J35" s="3">
-        <v>278600</v>
+        <v>268600</v>
       </c>
       <c r="K35" s="3">
         <v>338300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>428200</v>
+        <v>407600</v>
       </c>
       <c r="E41" s="3">
-        <v>201600</v>
+        <v>191900</v>
       </c>
       <c r="F41" s="3">
-        <v>554800</v>
+        <v>528200</v>
       </c>
       <c r="G41" s="3">
-        <v>961000</v>
+        <v>914900</v>
       </c>
       <c r="H41" s="3">
-        <v>1143200</v>
+        <v>1088300</v>
       </c>
       <c r="I41" s="3">
-        <v>1961300</v>
+        <v>1867100</v>
       </c>
       <c r="J41" s="3">
-        <v>990900</v>
+        <v>943300</v>
       </c>
       <c r="K41" s="3">
         <v>86500</v>
@@ -1685,19 +1685,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>122600</v>
+        <v>116800</v>
       </c>
       <c r="E42" s="3">
-        <v>147100</v>
+        <v>140000</v>
       </c>
       <c r="F42" s="3">
-        <v>143500</v>
+        <v>136600</v>
       </c>
       <c r="G42" s="3">
-        <v>89900</v>
+        <v>85600</v>
       </c>
       <c r="H42" s="3">
-        <v>224700</v>
+        <v>213900</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>937000</v>
+        <v>892000</v>
       </c>
       <c r="E43" s="3">
-        <v>649600</v>
+        <v>618400</v>
       </c>
       <c r="F43" s="3">
-        <v>609000</v>
+        <v>579800</v>
       </c>
       <c r="G43" s="3">
-        <v>728600</v>
+        <v>693600</v>
       </c>
       <c r="H43" s="3">
-        <v>770700</v>
+        <v>733700</v>
       </c>
       <c r="I43" s="3">
-        <v>972000</v>
+        <v>925300</v>
       </c>
       <c r="J43" s="3">
-        <v>898900</v>
+        <v>855800</v>
       </c>
       <c r="K43" s="3">
         <v>1141500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38100</v>
+        <v>36300</v>
       </c>
       <c r="E44" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="F44" s="3">
-        <v>23200</v>
+        <v>22100</v>
       </c>
       <c r="G44" s="3">
-        <v>27000</v>
+        <v>25700</v>
       </c>
       <c r="H44" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="I44" s="3">
-        <v>99000</v>
+        <v>94200</v>
       </c>
       <c r="J44" s="3">
-        <v>111300</v>
+        <v>105900</v>
       </c>
       <c r="K44" s="3">
         <v>62900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58300</v>
+        <v>55500</v>
       </c>
       <c r="E45" s="3">
-        <v>91500</v>
+        <v>87100</v>
       </c>
       <c r="F45" s="3">
-        <v>95100</v>
+        <v>90500</v>
       </c>
       <c r="G45" s="3">
-        <v>87600</v>
+        <v>83400</v>
       </c>
       <c r="H45" s="3">
-        <v>203600</v>
+        <v>193800</v>
       </c>
       <c r="I45" s="3">
-        <v>93200</v>
+        <v>88700</v>
       </c>
       <c r="J45" s="3">
-        <v>67400</v>
+        <v>64100</v>
       </c>
       <c r="K45" s="3">
         <v>88700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1584300</v>
+        <v>1508200</v>
       </c>
       <c r="E46" s="3">
-        <v>1124000</v>
+        <v>1070100</v>
       </c>
       <c r="F46" s="3">
-        <v>1425600</v>
+        <v>1357200</v>
       </c>
       <c r="G46" s="3">
-        <v>1894100</v>
+        <v>1803200</v>
       </c>
       <c r="H46" s="3">
-        <v>2256300</v>
+        <v>2148000</v>
       </c>
       <c r="I46" s="3">
-        <v>2095300</v>
+        <v>1994700</v>
       </c>
       <c r="J46" s="3">
-        <v>2012800</v>
+        <v>1916200</v>
       </c>
       <c r="K46" s="3">
         <v>2327700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>618000</v>
+        <v>588300</v>
       </c>
       <c r="E47" s="3">
-        <v>301000</v>
+        <v>286500</v>
       </c>
       <c r="F47" s="3">
-        <v>222700</v>
+        <v>212000</v>
       </c>
       <c r="G47" s="3">
-        <v>204700</v>
+        <v>194800</v>
       </c>
       <c r="H47" s="3">
-        <v>189800</v>
+        <v>180700</v>
       </c>
       <c r="I47" s="3">
-        <v>159200</v>
+        <v>151600</v>
       </c>
       <c r="J47" s="3">
-        <v>116900</v>
+        <v>111300</v>
       </c>
       <c r="K47" s="3">
         <v>19400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3300500</v>
+        <v>3142000</v>
       </c>
       <c r="E48" s="3">
-        <v>2099600</v>
+        <v>1998700</v>
       </c>
       <c r="F48" s="3">
-        <v>2031100</v>
+        <v>1933600</v>
       </c>
       <c r="G48" s="3">
-        <v>2077200</v>
+        <v>1977500</v>
       </c>
       <c r="H48" s="3">
-        <v>1999100</v>
+        <v>1903100</v>
       </c>
       <c r="I48" s="3">
-        <v>3341300</v>
+        <v>3180800</v>
       </c>
       <c r="J48" s="3">
-        <v>3076100</v>
+        <v>2928300</v>
       </c>
       <c r="K48" s="3">
         <v>1766900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1811800</v>
+        <v>1724800</v>
       </c>
       <c r="E49" s="3">
-        <v>2001800</v>
+        <v>1905700</v>
       </c>
       <c r="F49" s="3">
-        <v>2120000</v>
+        <v>2018200</v>
       </c>
       <c r="G49" s="3">
-        <v>1992500</v>
+        <v>1896900</v>
       </c>
       <c r="H49" s="3">
-        <v>1866400</v>
+        <v>1776700</v>
       </c>
       <c r="I49" s="3">
-        <v>3494100</v>
+        <v>3326300</v>
       </c>
       <c r="J49" s="3">
-        <v>2315500</v>
+        <v>2204300</v>
       </c>
       <c r="K49" s="3">
         <v>1398600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>246700</v>
+        <v>234900</v>
       </c>
       <c r="E52" s="3">
-        <v>462500</v>
+        <v>440300</v>
       </c>
       <c r="F52" s="3">
-        <v>309900</v>
+        <v>295000</v>
       </c>
       <c r="G52" s="3">
-        <v>325900</v>
+        <v>310200</v>
       </c>
       <c r="H52" s="3">
-        <v>351700</v>
+        <v>334800</v>
       </c>
       <c r="I52" s="3">
-        <v>424000</v>
+        <v>403600</v>
       </c>
       <c r="J52" s="3">
-        <v>457200</v>
+        <v>435300</v>
       </c>
       <c r="K52" s="3">
         <v>584400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7561400</v>
+        <v>7198200</v>
       </c>
       <c r="E54" s="3">
-        <v>5988900</v>
+        <v>5701300</v>
       </c>
       <c r="F54" s="3">
-        <v>6109300</v>
+        <v>5815900</v>
       </c>
       <c r="G54" s="3">
-        <v>6494500</v>
+        <v>6182600</v>
       </c>
       <c r="H54" s="3">
-        <v>6663300</v>
+        <v>6343300</v>
       </c>
       <c r="I54" s="3">
-        <v>6088500</v>
+        <v>5796100</v>
       </c>
       <c r="J54" s="3">
-        <v>5234400</v>
+        <v>4983000</v>
       </c>
       <c r="K54" s="3">
         <v>6097000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>735200</v>
+        <v>699900</v>
       </c>
       <c r="E57" s="3">
-        <v>810200</v>
+        <v>771300</v>
       </c>
       <c r="F57" s="3">
-        <v>747100</v>
+        <v>711200</v>
       </c>
       <c r="G57" s="3">
-        <v>648600</v>
+        <v>617500</v>
       </c>
       <c r="H57" s="3">
-        <v>699900</v>
+        <v>666200</v>
       </c>
       <c r="I57" s="3">
-        <v>2016000</v>
+        <v>1919200</v>
       </c>
       <c r="J57" s="3">
-        <v>1969700</v>
+        <v>1875100</v>
       </c>
       <c r="K57" s="3">
         <v>1002500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>423000</v>
+        <v>402700</v>
       </c>
       <c r="E58" s="3">
-        <v>169400</v>
+        <v>161200</v>
       </c>
       <c r="F58" s="3">
-        <v>286500</v>
+        <v>272700</v>
       </c>
       <c r="G58" s="3">
-        <v>232700</v>
+        <v>221500</v>
       </c>
       <c r="H58" s="3">
-        <v>443200</v>
+        <v>421900</v>
       </c>
       <c r="I58" s="3">
-        <v>481000</v>
+        <v>457900</v>
       </c>
       <c r="J58" s="3">
-        <v>182900</v>
+        <v>174200</v>
       </c>
       <c r="K58" s="3">
         <v>222100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>363000</v>
+        <v>345600</v>
       </c>
       <c r="E59" s="3">
-        <v>346400</v>
+        <v>329700</v>
       </c>
       <c r="F59" s="3">
-        <v>320300</v>
+        <v>304900</v>
       </c>
       <c r="G59" s="3">
-        <v>483200</v>
+        <v>460000</v>
       </c>
       <c r="H59" s="3">
-        <v>574900</v>
+        <v>547200</v>
       </c>
       <c r="I59" s="3">
-        <v>713400</v>
+        <v>679100</v>
       </c>
       <c r="J59" s="3">
-        <v>340400</v>
+        <v>324100</v>
       </c>
       <c r="K59" s="3">
         <v>497700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1521200</v>
+        <v>1448200</v>
       </c>
       <c r="E60" s="3">
-        <v>1325900</v>
+        <v>1262200</v>
       </c>
       <c r="F60" s="3">
-        <v>1353900</v>
+        <v>1288800</v>
       </c>
       <c r="G60" s="3">
-        <v>1364600</v>
+        <v>1299000</v>
       </c>
       <c r="H60" s="3">
-        <v>1717900</v>
+        <v>1635400</v>
       </c>
       <c r="I60" s="3">
-        <v>1806400</v>
+        <v>1719700</v>
       </c>
       <c r="J60" s="3">
-        <v>1508200</v>
+        <v>1435800</v>
       </c>
       <c r="K60" s="3">
         <v>1722300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1415400</v>
+        <v>1347400</v>
       </c>
       <c r="E61" s="3">
-        <v>505900</v>
+        <v>481600</v>
       </c>
       <c r="F61" s="3">
-        <v>946200</v>
+        <v>900800</v>
       </c>
       <c r="G61" s="3">
-        <v>1364300</v>
+        <v>1298800</v>
       </c>
       <c r="H61" s="3">
-        <v>1345600</v>
+        <v>1280900</v>
       </c>
       <c r="I61" s="3">
-        <v>1086700</v>
+        <v>1034500</v>
       </c>
       <c r="J61" s="3">
-        <v>767000</v>
+        <v>730200</v>
       </c>
       <c r="K61" s="3">
         <v>803100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>421100</v>
+        <v>400800</v>
       </c>
       <c r="E62" s="3">
-        <v>447600</v>
+        <v>426100</v>
       </c>
       <c r="F62" s="3">
-        <v>407700</v>
+        <v>388100</v>
       </c>
       <c r="G62" s="3">
-        <v>544700</v>
+        <v>518500</v>
       </c>
       <c r="H62" s="3">
-        <v>493200</v>
+        <v>469600</v>
       </c>
       <c r="I62" s="3">
-        <v>469500</v>
+        <v>447000</v>
       </c>
       <c r="J62" s="3">
-        <v>324700</v>
+        <v>309100</v>
       </c>
       <c r="K62" s="3">
         <v>341400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3357700</v>
+        <v>3196400</v>
       </c>
       <c r="E66" s="3">
-        <v>2279400</v>
+        <v>2169900</v>
       </c>
       <c r="F66" s="3">
-        <v>2707800</v>
+        <v>2577700</v>
       </c>
       <c r="G66" s="3">
-        <v>3273500</v>
+        <v>3116300</v>
       </c>
       <c r="H66" s="3">
-        <v>3556700</v>
+        <v>3385900</v>
       </c>
       <c r="I66" s="3">
-        <v>3286500</v>
+        <v>3128600</v>
       </c>
       <c r="J66" s="3">
-        <v>2499400</v>
+        <v>2379300</v>
       </c>
       <c r="K66" s="3">
         <v>2866700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2284300</v>
+        <v>2174600</v>
       </c>
       <c r="E72" s="3">
-        <v>1790700</v>
+        <v>1704700</v>
       </c>
       <c r="F72" s="3">
-        <v>1484200</v>
+        <v>1412900</v>
       </c>
       <c r="G72" s="3">
-        <v>1301400</v>
+        <v>1238900</v>
       </c>
       <c r="H72" s="3">
-        <v>1186600</v>
+        <v>1129600</v>
       </c>
       <c r="I72" s="3">
-        <v>1904600</v>
+        <v>1813100</v>
       </c>
       <c r="J72" s="3">
-        <v>1483100</v>
+        <v>1411900</v>
       </c>
       <c r="K72" s="3">
         <v>933300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4203700</v>
+        <v>4001800</v>
       </c>
       <c r="E76" s="3">
-        <v>3709600</v>
+        <v>3531400</v>
       </c>
       <c r="F76" s="3">
-        <v>3401500</v>
+        <v>3238200</v>
       </c>
       <c r="G76" s="3">
-        <v>3220900</v>
+        <v>3066300</v>
       </c>
       <c r="H76" s="3">
-        <v>3106600</v>
+        <v>2957400</v>
       </c>
       <c r="I76" s="3">
-        <v>2802000</v>
+        <v>2667400</v>
       </c>
       <c r="J76" s="3">
-        <v>2735000</v>
+        <v>2603700</v>
       </c>
       <c r="K76" s="3">
         <v>3230300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>670200</v>
+        <v>646200</v>
       </c>
       <c r="E81" s="3">
-        <v>470900</v>
+        <v>454000</v>
       </c>
       <c r="F81" s="3">
-        <v>228400</v>
+        <v>220200</v>
       </c>
       <c r="G81" s="3">
-        <v>138900</v>
+        <v>133900</v>
       </c>
       <c r="H81" s="3">
-        <v>385900</v>
+        <v>372000</v>
       </c>
       <c r="I81" s="3">
-        <v>286100</v>
+        <v>275900</v>
       </c>
       <c r="J81" s="3">
-        <v>278600</v>
+        <v>268600</v>
       </c>
       <c r="K81" s="3">
         <v>338300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>949000</v>
+        <v>915000</v>
       </c>
       <c r="E83" s="3">
-        <v>731700</v>
+        <v>705500</v>
       </c>
       <c r="F83" s="3">
-        <v>742600</v>
+        <v>716000</v>
       </c>
       <c r="G83" s="3">
-        <v>700400</v>
+        <v>675300</v>
       </c>
       <c r="H83" s="3">
-        <v>622100</v>
+        <v>599800</v>
       </c>
       <c r="I83" s="3">
-        <v>564800</v>
+        <v>544600</v>
       </c>
       <c r="J83" s="3">
-        <v>512100</v>
+        <v>493800</v>
       </c>
       <c r="K83" s="3">
         <v>627800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1307200</v>
+        <v>1260300</v>
       </c>
       <c r="E89" s="3">
-        <v>1134100</v>
+        <v>1093500</v>
       </c>
       <c r="F89" s="3">
-        <v>999900</v>
+        <v>964100</v>
       </c>
       <c r="G89" s="3">
-        <v>923700</v>
+        <v>890600</v>
       </c>
       <c r="H89" s="3">
-        <v>791600</v>
+        <v>763200</v>
       </c>
       <c r="I89" s="3">
-        <v>1191800</v>
+        <v>1149100</v>
       </c>
       <c r="J89" s="3">
-        <v>975000</v>
+        <v>940100</v>
       </c>
       <c r="K89" s="3">
         <v>1159500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-713000</v>
+        <v>-687500</v>
       </c>
       <c r="E91" s="3">
-        <v>-709000</v>
+        <v>-683600</v>
       </c>
       <c r="F91" s="3">
-        <v>-767500</v>
+        <v>-740000</v>
       </c>
       <c r="G91" s="3">
-        <v>-833100</v>
+        <v>-803200</v>
       </c>
       <c r="H91" s="3">
-        <v>-881500</v>
+        <v>-849900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1263700</v>
+        <v>-1218400</v>
       </c>
       <c r="J91" s="3">
-        <v>-658300</v>
+        <v>-634700</v>
       </c>
       <c r="K91" s="3">
         <v>-879100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-687000</v>
+        <v>-662300</v>
       </c>
       <c r="E94" s="3">
-        <v>-708700</v>
+        <v>-683300</v>
       </c>
       <c r="F94" s="3">
-        <v>-814200</v>
+        <v>-785100</v>
       </c>
       <c r="G94" s="3">
-        <v>-782400</v>
+        <v>-754300</v>
       </c>
       <c r="H94" s="3">
-        <v>-519000</v>
+        <v>-500400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1269900</v>
+        <v>-1224400</v>
       </c>
       <c r="J94" s="3">
-        <v>-660000</v>
+        <v>-636300</v>
       </c>
       <c r="K94" s="3">
         <v>-834200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-142500</v>
+        <v>-137400</v>
       </c>
       <c r="E96" s="3">
-        <v>-108800</v>
+        <v>-104900</v>
       </c>
       <c r="F96" s="3">
-        <v>-61600</v>
+        <v>-59300</v>
       </c>
       <c r="G96" s="3">
-        <v>-85200</v>
+        <v>-82100</v>
       </c>
       <c r="H96" s="3">
-        <v>-66700</v>
+        <v>-64300</v>
       </c>
       <c r="I96" s="3">
-        <v>-154700</v>
+        <v>-149100</v>
       </c>
       <c r="J96" s="3">
-        <v>-136000</v>
+        <v>-131100</v>
       </c>
       <c r="K96" s="3">
         <v>-122200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-396500</v>
+        <v>-382300</v>
       </c>
       <c r="E100" s="3">
-        <v>-774200</v>
+        <v>-746500</v>
       </c>
       <c r="F100" s="3">
-        <v>-586700</v>
+        <v>-565700</v>
       </c>
       <c r="G100" s="3">
-        <v>-321200</v>
+        <v>-309700</v>
       </c>
       <c r="H100" s="3">
-        <v>-112100</v>
+        <v>-108100</v>
       </c>
       <c r="I100" s="3">
-        <v>68000</v>
+        <v>65600</v>
       </c>
       <c r="J100" s="3">
-        <v>-156300</v>
+        <v>-150700</v>
       </c>
       <c r="K100" s="3">
         <v>-52800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>223800</v>
+        <v>215700</v>
       </c>
       <c r="E102" s="3">
-        <v>-348800</v>
+        <v>-336300</v>
       </c>
       <c r="F102" s="3">
-        <v>-401000</v>
+        <v>-386700</v>
       </c>
       <c r="G102" s="3">
-        <v>-179900</v>
+        <v>-173400</v>
       </c>
       <c r="H102" s="3">
-        <v>160500</v>
+        <v>154700</v>
       </c>
       <c r="I102" s="3">
-        <v>-10100</v>
+        <v>-9700</v>
       </c>
       <c r="J102" s="3">
-        <v>158700</v>
+        <v>153000</v>
       </c>
       <c r="K102" s="3">
         <v>272500</v>
